--- a/Mail/ChinaUnion_Agent/Template/ImportWechat_V1_Template.xlsx
+++ b/Mail/ChinaUnion_Agent/Template/ImportWechat_V1_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7695"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7695" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1-代理商联系信息表（顾莺）" sheetId="1" r:id="rId1"/>
@@ -119,118 +119,118 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>P001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>P008</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxid_luxb8r8dra1952</t>
+  </si>
+  <si>
+    <t>liuyg11@chinaunicom.cn</t>
+  </si>
+  <si>
+    <t>1197922021@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周安平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bestanping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海联通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘永刚</t>
+  </si>
+  <si>
+    <t>acegavin</t>
+  </si>
+  <si>
+    <t>TZM</t>
+  </si>
+  <si>
+    <t>applepple_reese</t>
+  </si>
+  <si>
+    <t>何颖</t>
+  </si>
+  <si>
+    <t>郑慧萍</t>
+  </si>
+  <si>
+    <t>zhenghuiping061133</t>
+  </si>
+  <si>
+    <t>王晓文</t>
+  </si>
+  <si>
+    <t>meixiaoxiao1122</t>
+  </si>
+  <si>
+    <t>yangqinxiao1@chinaunicom.cn</t>
+  </si>
+  <si>
+    <t>杨钦潇</t>
+  </si>
+  <si>
+    <t>happyv_w</t>
+  </si>
+  <si>
+    <t>吴丽花</t>
+  </si>
+  <si>
+    <t>devilyangqx-m7ncf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>区县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P003</t>
-  </si>
-  <si>
-    <t>P004</t>
-  </si>
-  <si>
-    <t>P005</t>
-  </si>
-  <si>
-    <t>P006</t>
-  </si>
-  <si>
-    <t>P007</t>
-  </si>
-  <si>
-    <t>P008</t>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务监督</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wxid_luxb8r8dra1952</t>
-  </si>
-  <si>
-    <t>liuyg11@chinaunicom.cn</t>
-  </si>
-  <si>
-    <t>1197922021@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周安平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bestanping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海联通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优赞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘永刚</t>
-  </si>
-  <si>
-    <t>acegavin</t>
-  </si>
-  <si>
-    <t>TZM</t>
-  </si>
-  <si>
-    <t>applepple_reese</t>
-  </si>
-  <si>
-    <t>何颖</t>
-  </si>
-  <si>
-    <t>郑慧萍</t>
-  </si>
-  <si>
-    <t>zhenghuiping061133</t>
-  </si>
-  <si>
-    <t>王晓文</t>
-  </si>
-  <si>
-    <t>meixiaoxiao1122</t>
-  </si>
-  <si>
-    <t>yangqinxiao1@chinaunicom.cn</t>
-  </si>
-  <si>
-    <t>杨钦潇</t>
-  </si>
-  <si>
-    <t>happyv_w</t>
-  </si>
-  <si>
-    <t>吴丽花</t>
-  </si>
-  <si>
-    <t>devilyangqx-m7ncf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -733,356 +733,356 @@
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="10">
         <v>13671935968</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="13">
         <v>18601721485</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
@@ -1153,7 +1153,7 @@
         <v>20</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>21</v>
@@ -1169,13 +1169,13 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1192,7 +1192,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1213,7 +1213,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1234,7 +1234,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1255,7 +1255,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1276,7 +1276,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1315,7 +1315,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -1327,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
@@ -1369,7 +1369,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1391,7 +1391,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1411,7 +1411,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1431,7 +1431,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1451,7 +1451,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1471,7 +1471,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>

--- a/Mail/ChinaUnion_Agent/Template/ImportWechat_V1_Template.xlsx
+++ b/Mail/ChinaUnion_Agent/Template/ImportWechat_V1_Template.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7695" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7695" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="1-代理商联系信息表（顾莺）" sheetId="1" r:id="rId1"/>
-    <sheet name="2-非直供渠道联系信息表（顾莺）" sheetId="2" r:id="rId2"/>
-    <sheet name="3-直供渠道联系信息表（顾莺）" sheetId="3" r:id="rId3"/>
+    <sheet name="代理商联系信息表" sheetId="1" r:id="rId1"/>
+    <sheet name="非直供渠道联系信息表" sheetId="2" r:id="rId2"/>
+    <sheet name="直供渠道联系信息表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="66">
   <si>
     <t>代理商编号</t>
   </si>
@@ -115,10 +115,6 @@
     <t>服务监督</t>
   </si>
   <si>
-    <t>权限,有权限，则为Y，反之为N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,6 +227,38 @@
   </si>
   <si>
     <t>区县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P211@sina.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P311@sina.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海普陀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海黄浦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,6 +411,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,7 +700,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A9" activeCellId="1" sqref="A9 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -733,356 +764,356 @@
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="F2" s="10">
         <v>13671935968</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="13">
         <v>18601721485</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1099,12 +1130,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1126,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
@@ -1153,7 +1185,7 @@
         <v>20</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>21</v>
@@ -1163,48 +1195,98 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
+      <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
@@ -1212,9 +1294,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1233,9 +1313,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1254,9 +1332,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1275,9 +1351,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1292,6 +1366,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -1302,7 +1380,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1315,7 +1393,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -1327,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
@@ -1364,55 +1442,99 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
+      <c r="A2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
+      <c r="A3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1430,9 +1552,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1450,9 +1570,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1470,9 +1588,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1505,6 +1621,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>